--- a/PTUD_Nhom1/data/DanhSachPhieuNhap.xlsx
+++ b/PTUD_Nhom1/data/DanhSachPhieuNhap.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Mã phiếu nhập</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Trạng thái</t>
   </si>
   <si>
-    <t>PN005</t>
+    <t>PN104</t>
   </si>
   <si>
     <t>2024-04-17</t>
@@ -44,27 +44,12 @@
     <t>NCC01</t>
   </si>
   <si>
-    <t>0.0</t>
+    <t>6360.0</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>PN006</t>
-  </si>
-  <si>
-    <t>PN007</t>
-  </si>
-  <si>
-    <t>PN011</t>
-  </si>
-  <si>
-    <t>PN104</t>
-  </si>
-  <si>
-    <t>6360.0</t>
-  </si>
-  <si>
     <t>PN109</t>
   </si>
   <si>
@@ -77,9 +62,6 @@
     <t>1320.0</t>
   </si>
   <si>
-    <t>PN1414</t>
-  </si>
-  <si>
     <t>PN199</t>
   </si>
   <si>
@@ -95,22 +77,13 @@
     <t>1221.0</t>
   </si>
   <si>
-    <t>PN988</t>
-  </si>
-  <si>
-    <t>PN1455</t>
+    <t>PN788</t>
+  </si>
+  <si>
+    <t>3100.0</t>
   </si>
   <si>
     <t>true</t>
-  </si>
-  <si>
-    <t>PN1999</t>
-  </si>
-  <si>
-    <t>PN788</t>
-  </si>
-  <si>
-    <t>3100.0</t>
   </si>
   <si>
     <t>PN888</t>
@@ -161,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -221,7 +194,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>11</v>
@@ -229,7 +202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>7</v>
@@ -241,7 +214,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>11</v>
@@ -249,7 +222,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>7</v>
@@ -261,7 +234,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>11</v>
@@ -269,7 +242,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>7</v>
@@ -278,10 +251,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>11</v>
@@ -289,7 +262,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>7</v>
@@ -301,190 +274,30 @@
         <v>9</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>9</v>
-      </c>
       <c r="E8" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
